--- a/server/branch/protected/models/excel/example/村社区防汛台基本情况.xlsx
+++ b/server/branch/protected/models/excel/example/村社区防汛台基本情况.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>村（社区）防汛防台基本情况表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,41 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>危险区域人员转移清单</t>
-    <rPh sb="0" eb="1">
-      <t>wei'xian'qu'yu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ren'yuan</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>zhuan'yi</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>qing'dan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乡（镇、街道）防汛台负责任</t>
-    <rPh sb="0" eb="1">
-      <t>xiang'zhen</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>jie'dao</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'xun'tai</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>tai</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>fu'ze'ren</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>啊啊啊街道李四</t>
     <rPh sb="0" eb="1">
       <t>a'a'a</t>
@@ -98,15 +63,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>啊啊啊，不不不，吃吃吃，ddd</t>
+    <t>乡（镇、街道）防汛台负责人</t>
     <rPh sb="0" eb="1">
-      <t>a'a'a</t>
+      <t>xiang'zhen</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>b'b'b</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>c'c'c</t>
+      <t>jie'dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fang'xun'tai</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>tai</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fu'ze'ren</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ren</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,11 +187,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -497,26 +471,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="16" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -532,20 +505,17 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="3"/>
+      <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -555,31 +525,28 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="4"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="3"/>
+      <c r="S2" s="3"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -588,20 +555,19 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -610,18 +576,17 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="3"/>
+      <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -633,11 +598,10 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
